--- a/biology/Zoologie/Wallace_Craig/Wallace_Craig.xlsx
+++ b/biology/Zoologie/Wallace_Craig/Wallace_Craig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Wallace Craig est un éthologue américain, né en 1876 et mort en 1954.
 De 1908 à 1922, il enseigne la philosophie à l’université du Maine et étudie le comportement du pigeon.
@@ -512,7 +524,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1918 : Appetites and Aversions as Constituents of Instincts.</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Orientation bibliographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">T. J. Kalikow et J. A. Mills, « Wallace Craig (1876-1954), ethologist and animal psychologist », Journal of comparative psychology, 103 (3), 1989, p. 281-288  (ISSN 0735-7036).
  Portail de l’histoire de la zoologie et de la botanique   Portail de la zoologie                    </t>
